--- a/VALOR/Exportación por Lugar de Salida 2017 - Mensual - Editado.xlsx
+++ b/VALOR/Exportación por Lugar de Salida 2017 - Mensual - Editado.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aseba\Desktop\DATA Exterior\Exportaciones\FOB\2017\Editado\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-COMERCIO\VALOR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BD65B9C-2880-4E70-B917-4E9EF6F891E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF50A0D5-C574-4E5E-BDD5-96D8EE736039}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Expo LugarSalida Monto FOB 2017" sheetId="2" r:id="rId1"/>
@@ -352,7 +352,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -411,11 +411,107 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -447,6 +543,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -456,27 +553,430 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="1" fillId="5" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="1" fillId="5" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -487,6 +987,28 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{82764411-8115-49E4-8BC2-A574ED18F00A}" name="exp_salida_valor_2017" displayName="exp_salida_valor_2017" ref="A1:M56" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="16" tableBorderDxfId="17" totalsRowBorderDxfId="15">
+  <autoFilter ref="A1:M56" xr:uid="{9D4E7A01-A6B1-481C-A2FE-A2B7FC556FA4}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{574BD1E5-1AE2-48B6-837C-17771859DE7C}" name="Lugar de Salida (Puerto-Aeropuerto-Avanzada)" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{8401278C-4299-45EF-9A7C-7A8254C8FD30}" name="Enero - 2017" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{E7759478-6144-465A-AFE8-B7CBEE5F222B}" name="Febrero - 2017" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{1C48381C-D36F-47F3-8737-7DD31F506A3C}" name="Marzo - 2017" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{61D61DB9-0ABE-48AF-B5A0-45F2D75C3FB2}" name="Abril - 2017" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{49FF4624-ECF1-458A-A21C-0D5952A98B32}" name="Mayo - 2017" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{2DBE15C6-54FE-4681-BFA8-B64823347A2E}" name="Junio - 2017" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{9A3DC00C-4D0B-4526-AE06-F1C8ECC086D5}" name="Julio - 2017" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{2C624BDD-E754-4149-B2ED-D83AC1068662}" name="Agosto - 2017" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{B7FE2F8D-EAAF-4F9E-A7DB-6E68461F8013}" name="Septiembre - 2017" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{575A8381-E24D-442B-90ED-88727A307404}" name="Octubre - 2017" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{1BC32FEB-B211-4BAE-96EA-34808635A0EE}" name="Noviembre - 2017" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{C0300281-0459-43B7-8722-EF36CD9499F4}" name="Diciembre - 201" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -783,41 +1305,41 @@
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B2" s="3"/>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
       <c r="O2" s="3"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="16" t="s">
+      <c r="C3" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="17" t="s">
         <v>13</v>
       </c>
     </row>
@@ -861,7 +1383,7 @@
       <c r="N4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="O4" s="17"/>
+      <c r="O4" s="18"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B5" s="13" t="s">
@@ -3348,7 +3870,7 @@
   <dimension ref="A1:M56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection sqref="A1:M56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3362,2310 +3884,2313 @@
     <col min="7" max="7" width="16.44140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="19.5546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="16.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.109375" style="1" customWidth="1"/>
     <col min="11" max="11" width="15.44140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="17.5546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.77734375" style="1" customWidth="1"/>
     <col min="13" max="13" width="16" style="1" customWidth="1"/>
     <col min="14" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="L1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="25" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="23">
+      <c r="B2" s="15">
         <v>349651761.88000029</v>
       </c>
-      <c r="C2" s="23">
+      <c r="C2" s="15">
         <v>315586984.45999992</v>
       </c>
-      <c r="D2" s="23">
+      <c r="D2" s="15">
         <v>339167120.79999989</v>
       </c>
-      <c r="E2" s="23">
+      <c r="E2" s="15">
         <v>341839431.79999959</v>
       </c>
-      <c r="F2" s="23">
+      <c r="F2" s="15">
         <v>368026938.33000028</v>
       </c>
-      <c r="G2" s="23">
+      <c r="G2" s="15">
         <v>342196316.72000051</v>
       </c>
-      <c r="H2" s="23">
+      <c r="H2" s="15">
         <v>404415275.54999954</v>
       </c>
-      <c r="I2" s="23">
+      <c r="I2" s="15">
         <v>364352135.24999988</v>
       </c>
-      <c r="J2" s="23">
+      <c r="J2" s="15">
         <v>284519605.50000006</v>
       </c>
-      <c r="K2" s="23">
+      <c r="K2" s="15">
         <v>349312665.31000006</v>
       </c>
-      <c r="L2" s="23">
+      <c r="L2" s="15">
         <v>370250842.46999985</v>
       </c>
-      <c r="M2" s="23">
+      <c r="M2" s="20">
         <v>404962856.02999985</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="23">
+      <c r="B3" s="15">
         <v>240455.29</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="15">
         <v>418320.7</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="15">
         <v>196870.07</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="15">
         <v>28873.859999999997</v>
       </c>
-      <c r="F3" s="23">
+      <c r="F3" s="15">
         <v>18857.939999999999</v>
       </c>
-      <c r="G3" s="23">
+      <c r="G3" s="15">
         <v>45017.95</v>
       </c>
-      <c r="H3" s="23">
+      <c r="H3" s="15">
         <v>28442.550000000003</v>
       </c>
-      <c r="I3" s="23">
+      <c r="I3" s="15">
         <v>28702.17</v>
       </c>
-      <c r="J3" s="23">
+      <c r="J3" s="15">
         <v>16677.830000000002</v>
       </c>
-      <c r="K3" s="23">
+      <c r="K3" s="15">
         <v>15750.41</v>
       </c>
-      <c r="L3" s="23">
+      <c r="L3" s="15">
         <v>372277.2</v>
       </c>
-      <c r="M3" s="23">
+      <c r="M3" s="20">
         <v>515055.81</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="23">
-        <v>0</v>
-      </c>
-      <c r="C4" s="23">
-        <v>0</v>
-      </c>
-      <c r="D4" s="23">
-        <v>0</v>
-      </c>
-      <c r="E4" s="23">
-        <v>0</v>
-      </c>
-      <c r="F4" s="23">
-        <v>0</v>
-      </c>
-      <c r="G4" s="23">
-        <v>0</v>
-      </c>
-      <c r="H4" s="23">
-        <v>0</v>
-      </c>
-      <c r="I4" s="23">
-        <v>0</v>
-      </c>
-      <c r="J4" s="23">
-        <v>0</v>
-      </c>
-      <c r="K4" s="23">
-        <v>0</v>
-      </c>
-      <c r="L4" s="23">
+      <c r="B4" s="15">
+        <v>0</v>
+      </c>
+      <c r="C4" s="15">
+        <v>0</v>
+      </c>
+      <c r="D4" s="15">
+        <v>0</v>
+      </c>
+      <c r="E4" s="15">
+        <v>0</v>
+      </c>
+      <c r="F4" s="15">
+        <v>0</v>
+      </c>
+      <c r="G4" s="15">
+        <v>0</v>
+      </c>
+      <c r="H4" s="15">
+        <v>0</v>
+      </c>
+      <c r="I4" s="15">
+        <v>0</v>
+      </c>
+      <c r="J4" s="15">
+        <v>0</v>
+      </c>
+      <c r="K4" s="15">
+        <v>0</v>
+      </c>
+      <c r="L4" s="15">
         <v>10457.780000000001</v>
       </c>
-      <c r="M4" s="23">
+      <c r="M4" s="20">
         <v>127460.95</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="23">
-        <v>0</v>
-      </c>
-      <c r="C5" s="23">
+      <c r="B5" s="15">
+        <v>0</v>
+      </c>
+      <c r="C5" s="15">
         <v>38910.129999999997</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="15">
         <v>22172.31</v>
       </c>
-      <c r="E5" s="23">
-        <v>0</v>
-      </c>
-      <c r="F5" s="23">
+      <c r="E5" s="15">
+        <v>0</v>
+      </c>
+      <c r="F5" s="15">
         <v>22265.68</v>
       </c>
-      <c r="G5" s="23">
-        <v>0</v>
-      </c>
-      <c r="H5" s="23">
+      <c r="G5" s="15">
+        <v>0</v>
+      </c>
+      <c r="H5" s="15">
         <v>21288.79</v>
       </c>
-      <c r="I5" s="23">
+      <c r="I5" s="15">
         <v>11629.26</v>
       </c>
-      <c r="J5" s="23">
+      <c r="J5" s="15">
         <v>18443.990000000002</v>
       </c>
-      <c r="K5" s="23">
-        <v>0</v>
-      </c>
-      <c r="L5" s="23">
+      <c r="K5" s="15">
+        <v>0</v>
+      </c>
+      <c r="L5" s="15">
         <v>54637.98</v>
       </c>
-      <c r="M5" s="23">
+      <c r="M5" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="23">
+      <c r="B6" s="15">
         <v>233602.11</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="15">
         <v>269343.05</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="15">
         <v>228617.26</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="15">
         <v>208539.32</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="15">
         <v>317970.83999999997</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="15">
         <v>89850.69</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6" s="15">
         <v>87029.98000000001</v>
       </c>
-      <c r="I6" s="23">
+      <c r="I6" s="15">
         <v>125719.45000000001</v>
       </c>
-      <c r="J6" s="23">
+      <c r="J6" s="15">
         <v>90417.989999999991</v>
       </c>
-      <c r="K6" s="23">
+      <c r="K6" s="15">
         <v>97443.11</v>
       </c>
-      <c r="L6" s="23">
+      <c r="L6" s="15">
         <v>126684.09999999999</v>
       </c>
-      <c r="M6" s="23">
+      <c r="M6" s="20">
         <v>139872.46</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="23">
-        <v>0</v>
-      </c>
-      <c r="C7" s="23">
-        <v>0</v>
-      </c>
-      <c r="D7" s="23">
-        <v>0</v>
-      </c>
-      <c r="E7" s="23">
+      <c r="B7" s="15">
+        <v>0</v>
+      </c>
+      <c r="C7" s="15">
+        <v>0</v>
+      </c>
+      <c r="D7" s="15">
+        <v>0</v>
+      </c>
+      <c r="E7" s="15">
         <v>641115.27</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="15">
         <v>320646</v>
       </c>
-      <c r="G7" s="23">
-        <v>0</v>
-      </c>
-      <c r="H7" s="23">
-        <v>0</v>
-      </c>
-      <c r="I7" s="23">
-        <v>0</v>
-      </c>
-      <c r="J7" s="23">
-        <v>0</v>
-      </c>
-      <c r="K7" s="23">
-        <v>0</v>
-      </c>
-      <c r="L7" s="23">
-        <v>0</v>
-      </c>
-      <c r="M7" s="23">
+      <c r="G7" s="15">
+        <v>0</v>
+      </c>
+      <c r="H7" s="15">
+        <v>0</v>
+      </c>
+      <c r="I7" s="15">
+        <v>0</v>
+      </c>
+      <c r="J7" s="15">
+        <v>0</v>
+      </c>
+      <c r="K7" s="15">
+        <v>0</v>
+      </c>
+      <c r="L7" s="15">
+        <v>0</v>
+      </c>
+      <c r="M7" s="20">
         <v>9938.02</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="23">
+      <c r="B8" s="15">
         <v>501212152.04000008</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="15">
         <v>397062220.21999997</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="15">
         <v>472374458.49999982</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="15">
         <v>310560399.64000005</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="15">
         <v>364003332.44999999</v>
       </c>
-      <c r="G8" s="23">
+      <c r="G8" s="15">
         <v>303779940.56000006</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="15">
         <v>366964453.92000002</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I8" s="15">
         <v>498954513.15000004</v>
       </c>
-      <c r="J8" s="23">
+      <c r="J8" s="15">
         <v>291408543.54999995</v>
       </c>
-      <c r="K8" s="23">
+      <c r="K8" s="15">
         <v>574193960.31999993</v>
       </c>
-      <c r="L8" s="23">
+      <c r="L8" s="15">
         <v>457755960.93000001</v>
       </c>
-      <c r="M8" s="23">
+      <c r="M8" s="20">
         <v>616450947.58999991</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="23">
+      <c r="B9" s="15">
         <v>12383933.700000001</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="15">
         <v>9339192.0599999968</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="15">
         <v>11590841.4</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="15">
         <v>16783001.699999996</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="15">
         <v>17263713.230000008</v>
       </c>
-      <c r="G9" s="23">
+      <c r="G9" s="15">
         <v>13800155.430000002</v>
       </c>
-      <c r="H9" s="23">
+      <c r="H9" s="15">
         <v>11152145.500000002</v>
       </c>
-      <c r="I9" s="23">
+      <c r="I9" s="15">
         <v>17590844.529999997</v>
       </c>
-      <c r="J9" s="23">
+      <c r="J9" s="15">
         <v>18526562.720000003</v>
       </c>
-      <c r="K9" s="23">
+      <c r="K9" s="15">
         <v>22638076.720000006</v>
       </c>
-      <c r="L9" s="23">
+      <c r="L9" s="15">
         <v>16920930.339999996</v>
       </c>
-      <c r="M9" s="23">
+      <c r="M9" s="20">
         <v>21351965.580000002</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="23">
+      <c r="B10" s="15">
         <v>21914124.669999998</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="15">
         <v>4059011.65</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="15">
         <v>21111784.59</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="15">
         <v>12183874.189999999</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="15">
         <v>22630922.370000001</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G10" s="15">
         <v>14255037.470000001</v>
       </c>
-      <c r="H10" s="23">
-        <v>0</v>
-      </c>
-      <c r="I10" s="23">
+      <c r="H10" s="15">
+        <v>0</v>
+      </c>
+      <c r="I10" s="15">
         <v>16397807.1</v>
       </c>
-      <c r="J10" s="23">
+      <c r="J10" s="15">
         <v>17050179.039999999</v>
       </c>
-      <c r="K10" s="23">
+      <c r="K10" s="15">
         <v>15370837.950000001</v>
       </c>
-      <c r="L10" s="23">
+      <c r="L10" s="15">
         <v>17022887.93</v>
       </c>
-      <c r="M10" s="23">
+      <c r="M10" s="20">
         <v>2697500.75</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="23">
+      <c r="B11" s="15">
         <v>6254185.6299999999</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="15">
         <v>6951654.0899999999</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="15">
         <v>3063378.27</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="15">
         <v>4183917.2800000003</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="15">
         <v>6687950.0800000001</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G11" s="15">
         <v>10608523.49</v>
       </c>
-      <c r="H11" s="23">
+      <c r="H11" s="15">
         <v>8700669.2600000016</v>
       </c>
-      <c r="I11" s="23">
+      <c r="I11" s="15">
         <v>5834605.6599999992</v>
       </c>
-      <c r="J11" s="23">
+      <c r="J11" s="15">
         <v>6125.81</v>
       </c>
-      <c r="K11" s="23">
+      <c r="K11" s="15">
         <v>1998523.8499999999</v>
       </c>
-      <c r="L11" s="23">
+      <c r="L11" s="15">
         <v>11922143.02</v>
       </c>
-      <c r="M11" s="23">
+      <c r="M11" s="20">
         <v>2993476.95</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="23">
+      <c r="B12" s="15">
         <v>85763254.860000014</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="15">
         <v>76934577.969999999</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="15">
         <v>138707188.62</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="15">
         <v>92585259.670000002</v>
       </c>
-      <c r="F12" s="23">
+      <c r="F12" s="15">
         <v>137242625.76000002</v>
       </c>
-      <c r="G12" s="23">
+      <c r="G12" s="15">
         <v>150333843.53</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H12" s="15">
         <v>127311016.08</v>
       </c>
-      <c r="I12" s="23">
+      <c r="I12" s="15">
         <v>107961854.78</v>
       </c>
-      <c r="J12" s="23">
+      <c r="J12" s="15">
         <v>146067163.06999999</v>
       </c>
-      <c r="K12" s="23">
+      <c r="K12" s="15">
         <v>94882979.260000005</v>
       </c>
-      <c r="L12" s="23">
+      <c r="L12" s="15">
         <v>163863884.56</v>
       </c>
-      <c r="M12" s="23">
+      <c r="M12" s="20">
         <v>137466153.33000001</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="23">
+      <c r="B13" s="15">
         <v>262830129.62</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="15">
         <v>282977413.60000002</v>
       </c>
-      <c r="D13" s="23">
-        <v>0</v>
-      </c>
-      <c r="E13" s="23">
-        <v>0</v>
-      </c>
-      <c r="F13" s="23">
+      <c r="D13" s="15">
+        <v>0</v>
+      </c>
+      <c r="E13" s="15">
+        <v>0</v>
+      </c>
+      <c r="F13" s="15">
         <v>313512107.61000001</v>
       </c>
-      <c r="G13" s="23">
+      <c r="G13" s="15">
         <v>215487785.43000001</v>
       </c>
-      <c r="H13" s="23">
+      <c r="H13" s="15">
         <v>411660582.24000001</v>
       </c>
-      <c r="I13" s="23">
+      <c r="I13" s="15">
         <v>378526206.73000002</v>
       </c>
-      <c r="J13" s="23">
+      <c r="J13" s="15">
         <v>271128952.91000003</v>
       </c>
-      <c r="K13" s="23">
+      <c r="K13" s="15">
         <v>515940424.09999996</v>
       </c>
-      <c r="L13" s="23">
+      <c r="L13" s="15">
         <v>449478643.49000001</v>
       </c>
-      <c r="M13" s="23">
+      <c r="M13" s="20">
         <v>304950598.95000005</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="23">
+      <c r="B14" s="15">
         <v>16847453.18</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C14" s="15">
         <v>25346321.440000001</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="15">
         <v>29581723.07</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="15">
         <v>16963703.580000002</v>
       </c>
-      <c r="F14" s="23">
+      <c r="F14" s="15">
         <v>17935094.120000001</v>
       </c>
-      <c r="G14" s="23">
+      <c r="G14" s="15">
         <v>13297607.52</v>
       </c>
-      <c r="H14" s="23">
+      <c r="H14" s="15">
         <v>19743038.350000005</v>
       </c>
-      <c r="I14" s="23">
+      <c r="I14" s="15">
         <v>18740979.069999997</v>
       </c>
-      <c r="J14" s="23">
+      <c r="J14" s="15">
         <v>17988846.140000001</v>
       </c>
-      <c r="K14" s="23">
+      <c r="K14" s="15">
         <v>16331571.99</v>
       </c>
-      <c r="L14" s="23">
+      <c r="L14" s="15">
         <v>14449097.99</v>
       </c>
-      <c r="M14" s="23">
+      <c r="M14" s="20">
         <v>14916553.790000001</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="23">
-        <v>0</v>
-      </c>
-      <c r="C15" s="23">
-        <v>0</v>
-      </c>
-      <c r="D15" s="23">
+      <c r="B15" s="15">
+        <v>0</v>
+      </c>
+      <c r="C15" s="15">
+        <v>0</v>
+      </c>
+      <c r="D15" s="15">
         <v>6924116</v>
       </c>
-      <c r="E15" s="23">
-        <v>0</v>
-      </c>
-      <c r="F15" s="23">
+      <c r="E15" s="15">
+        <v>0</v>
+      </c>
+      <c r="F15" s="15">
         <v>7381346</v>
       </c>
-      <c r="G15" s="23">
-        <v>0</v>
-      </c>
-      <c r="H15" s="23">
-        <v>0</v>
-      </c>
-      <c r="I15" s="23">
+      <c r="G15" s="15">
+        <v>0</v>
+      </c>
+      <c r="H15" s="15">
+        <v>0</v>
+      </c>
+      <c r="I15" s="15">
         <v>5551535</v>
       </c>
-      <c r="J15" s="23">
-        <v>0</v>
-      </c>
-      <c r="K15" s="23">
+      <c r="J15" s="15">
+        <v>0</v>
+      </c>
+      <c r="K15" s="15">
         <v>3836578.51</v>
       </c>
-      <c r="L15" s="23">
+      <c r="L15" s="15">
         <v>5137156.8499999996</v>
       </c>
-      <c r="M15" s="23">
+      <c r="M15" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="23">
+      <c r="B16" s="15">
         <v>10472141.399999997</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C16" s="15">
         <v>13565591.920000004</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="15">
         <v>13286120.100000001</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="15">
         <v>9911896.200000003</v>
       </c>
-      <c r="F16" s="23">
+      <c r="F16" s="15">
         <v>11656780.740000008</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="15">
         <v>9613105.2599999979</v>
       </c>
-      <c r="H16" s="23">
+      <c r="H16" s="15">
         <v>12909934.32</v>
       </c>
-      <c r="I16" s="23">
+      <c r="I16" s="15">
         <v>12566862.399999997</v>
       </c>
-      <c r="J16" s="23">
+      <c r="J16" s="15">
         <v>10520494.429999998</v>
       </c>
-      <c r="K16" s="23">
+      <c r="K16" s="15">
         <v>10166439.189999998</v>
       </c>
-      <c r="L16" s="23">
+      <c r="L16" s="15">
         <v>10554832.290000007</v>
       </c>
-      <c r="M16" s="23">
+      <c r="M16" s="20">
         <v>10269123.580000004</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="23">
-        <v>0</v>
-      </c>
-      <c r="C17" s="23">
-        <v>0</v>
-      </c>
-      <c r="D17" s="23">
-        <v>0</v>
-      </c>
-      <c r="E17" s="23">
+      <c r="B17" s="15">
+        <v>0</v>
+      </c>
+      <c r="C17" s="15">
+        <v>0</v>
+      </c>
+      <c r="D17" s="15">
+        <v>0</v>
+      </c>
+      <c r="E17" s="15">
         <v>8036889.6500000004</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F17" s="15">
         <v>16827527.629999999</v>
       </c>
-      <c r="G17" s="23">
+      <c r="G17" s="15">
         <v>44512269.68</v>
       </c>
-      <c r="H17" s="23">
+      <c r="H17" s="15">
         <v>24680486.539999999</v>
       </c>
-      <c r="I17" s="23">
+      <c r="I17" s="15">
         <v>6654392.0600000005</v>
       </c>
-      <c r="J17" s="23">
+      <c r="J17" s="15">
         <v>32313709.580000002</v>
       </c>
-      <c r="K17" s="23">
-        <v>0</v>
-      </c>
-      <c r="L17" s="23">
+      <c r="K17" s="15">
+        <v>0</v>
+      </c>
+      <c r="L17" s="15">
         <v>5845910.8200000003</v>
       </c>
-      <c r="M17" s="23">
+      <c r="M17" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="23">
-        <v>0</v>
-      </c>
-      <c r="C18" s="23">
+      <c r="B18" s="15">
+        <v>0</v>
+      </c>
+      <c r="C18" s="15">
         <v>507191.97</v>
       </c>
-      <c r="D18" s="23">
-        <v>0</v>
-      </c>
-      <c r="E18" s="23">
-        <v>0</v>
-      </c>
-      <c r="F18" s="23">
-        <v>0</v>
-      </c>
-      <c r="G18" s="23">
-        <v>0</v>
-      </c>
-      <c r="H18" s="23">
-        <v>0</v>
-      </c>
-      <c r="I18" s="23">
+      <c r="D18" s="15">
+        <v>0</v>
+      </c>
+      <c r="E18" s="15">
+        <v>0</v>
+      </c>
+      <c r="F18" s="15">
+        <v>0</v>
+      </c>
+      <c r="G18" s="15">
+        <v>0</v>
+      </c>
+      <c r="H18" s="15">
+        <v>0</v>
+      </c>
+      <c r="I18" s="15">
         <v>47561</v>
       </c>
-      <c r="J18" s="23">
-        <v>0</v>
-      </c>
-      <c r="K18" s="23">
+      <c r="J18" s="15">
+        <v>0</v>
+      </c>
+      <c r="K18" s="15">
         <v>1996.09</v>
       </c>
-      <c r="L18" s="23">
-        <v>0</v>
-      </c>
-      <c r="M18" s="23">
+      <c r="L18" s="15">
+        <v>0</v>
+      </c>
+      <c r="M18" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="23">
+      <c r="B19" s="15">
         <v>19186251.460000008</v>
       </c>
-      <c r="C19" s="23">
+      <c r="C19" s="15">
         <v>17744165.34</v>
       </c>
-      <c r="D19" s="23">
+      <c r="D19" s="15">
         <v>25518051.310000002</v>
       </c>
-      <c r="E19" s="23">
+      <c r="E19" s="15">
         <v>11571234.059999997</v>
       </c>
-      <c r="F19" s="23">
+      <c r="F19" s="15">
         <v>16395731.610000012</v>
       </c>
-      <c r="G19" s="23">
+      <c r="G19" s="15">
         <v>12191813.070000006</v>
       </c>
-      <c r="H19" s="23">
+      <c r="H19" s="15">
         <v>14323234.710000014</v>
       </c>
-      <c r="I19" s="23">
+      <c r="I19" s="15">
         <v>14249023.049999997</v>
       </c>
-      <c r="J19" s="23">
+      <c r="J19" s="15">
         <v>12831930.679999994</v>
       </c>
-      <c r="K19" s="23">
+      <c r="K19" s="15">
         <v>11457703.109999988</v>
       </c>
-      <c r="L19" s="23">
+      <c r="L19" s="15">
         <v>13695749.390000012</v>
       </c>
-      <c r="M19" s="23">
+      <c r="M19" s="20">
         <v>13007634.75999999</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="23">
+      <c r="B20" s="15">
         <v>2070410.1600000001</v>
       </c>
-      <c r="C20" s="23">
+      <c r="C20" s="15">
         <v>1630361.5399999998</v>
       </c>
-      <c r="D20" s="23">
+      <c r="D20" s="15">
         <v>3691145.5799999996</v>
       </c>
-      <c r="E20" s="23">
+      <c r="E20" s="15">
         <v>3661383.7400000007</v>
       </c>
-      <c r="F20" s="23">
+      <c r="F20" s="15">
         <v>3564831.6100000008</v>
       </c>
-      <c r="G20" s="23">
+      <c r="G20" s="15">
         <v>4447510.7500000009</v>
       </c>
-      <c r="H20" s="23">
+      <c r="H20" s="15">
         <v>6036092.3600000003</v>
       </c>
-      <c r="I20" s="23">
+      <c r="I20" s="15">
         <v>4980574.53</v>
       </c>
-      <c r="J20" s="23">
+      <c r="J20" s="15">
         <v>2653968.0699999994</v>
       </c>
-      <c r="K20" s="23">
+      <c r="K20" s="15">
         <v>6466046.419999999</v>
       </c>
-      <c r="L20" s="23">
+      <c r="L20" s="15">
         <v>2917762.0499999989</v>
       </c>
-      <c r="M20" s="23">
+      <c r="M20" s="20">
         <v>5345039.0199999986</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="23">
+      <c r="B21" s="15">
         <v>113220723.03</v>
       </c>
-      <c r="C21" s="23">
+      <c r="C21" s="15">
         <v>100911222.37</v>
       </c>
-      <c r="D21" s="23">
+      <c r="D21" s="15">
         <v>84622613.280000001</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21" s="15">
         <v>55648777.799999997</v>
       </c>
-      <c r="F21" s="23">
+      <c r="F21" s="15">
         <v>98981280.450000003</v>
       </c>
-      <c r="G21" s="23">
+      <c r="G21" s="15">
         <v>115211358.23999999</v>
       </c>
-      <c r="H21" s="23">
+      <c r="H21" s="15">
         <v>64362509.210000001</v>
       </c>
-      <c r="I21" s="23">
+      <c r="I21" s="15">
         <v>88108603.969999999</v>
       </c>
-      <c r="J21" s="23">
+      <c r="J21" s="15">
         <v>76126513.230000004</v>
       </c>
-      <c r="K21" s="23">
+      <c r="K21" s="15">
         <v>143302722.30999997</v>
       </c>
-      <c r="L21" s="23">
+      <c r="L21" s="15">
         <v>34089870.359999999</v>
       </c>
-      <c r="M21" s="23">
+      <c r="M21" s="20">
         <v>117369428.89</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="23">
+      <c r="B22" s="15">
         <v>258902173.48000002</v>
       </c>
-      <c r="C22" s="23">
+      <c r="C22" s="15">
         <v>241326596.89999977</v>
       </c>
-      <c r="D22" s="23">
+      <c r="D22" s="15">
         <v>257504973.45999998</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E22" s="15">
         <v>238901404.58000016</v>
       </c>
-      <c r="F22" s="23">
+      <c r="F22" s="15">
         <v>221601332.64000016</v>
       </c>
-      <c r="G22" s="23">
+      <c r="G22" s="15">
         <v>242101348.47999987</v>
       </c>
-      <c r="H22" s="23">
+      <c r="H22" s="15">
         <v>196447402.87000003</v>
       </c>
-      <c r="I22" s="23">
+      <c r="I22" s="15">
         <v>312493613.65999997</v>
       </c>
-      <c r="J22" s="23">
+      <c r="J22" s="15">
         <v>266348870.70000002</v>
       </c>
-      <c r="K22" s="23">
+      <c r="K22" s="15">
         <v>205154523.12999979</v>
       </c>
-      <c r="L22" s="23">
+      <c r="L22" s="15">
         <v>208393873.76000011</v>
       </c>
-      <c r="M22" s="23">
+      <c r="M22" s="20">
         <v>224176957.70000014</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="23">
+      <c r="B23" s="15">
         <v>6776316.1299999999</v>
       </c>
-      <c r="C23" s="23">
+      <c r="C23" s="15">
         <v>3202597.77</v>
       </c>
-      <c r="D23" s="23">
+      <c r="D23" s="15">
         <v>9731186.75</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E23" s="15">
         <v>11561.96</v>
       </c>
-      <c r="F23" s="23">
+      <c r="F23" s="15">
         <v>6549301.8300000001</v>
       </c>
-      <c r="G23" s="23">
+      <c r="G23" s="15">
         <v>2883343.08</v>
       </c>
-      <c r="H23" s="23">
+      <c r="H23" s="15">
         <v>5775500.2599999998</v>
       </c>
-      <c r="I23" s="23">
+      <c r="I23" s="15">
         <v>2199860.2599999998</v>
       </c>
-      <c r="J23" s="23">
+      <c r="J23" s="15">
         <v>2767688.08</v>
       </c>
-      <c r="K23" s="23">
+      <c r="K23" s="15">
         <v>5038213.9899999993</v>
       </c>
-      <c r="L23" s="23">
+      <c r="L23" s="15">
         <v>6236344.3200000003</v>
       </c>
-      <c r="M23" s="23">
+      <c r="M23" s="20">
         <v>6029060.6599999992</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="23">
-        <v>0</v>
-      </c>
-      <c r="C24" s="23">
-        <v>0</v>
-      </c>
-      <c r="D24" s="23">
-        <v>0</v>
-      </c>
-      <c r="E24" s="23">
-        <v>0</v>
-      </c>
-      <c r="F24" s="23">
-        <v>0</v>
-      </c>
-      <c r="G24" s="23">
-        <v>0</v>
-      </c>
-      <c r="H24" s="23">
-        <v>0</v>
-      </c>
-      <c r="I24" s="23">
-        <v>0</v>
-      </c>
-      <c r="J24" s="23">
-        <v>0</v>
-      </c>
-      <c r="K24" s="23">
+      <c r="B24" s="15">
+        <v>0</v>
+      </c>
+      <c r="C24" s="15">
+        <v>0</v>
+      </c>
+      <c r="D24" s="15">
+        <v>0</v>
+      </c>
+      <c r="E24" s="15">
+        <v>0</v>
+      </c>
+      <c r="F24" s="15">
+        <v>0</v>
+      </c>
+      <c r="G24" s="15">
+        <v>0</v>
+      </c>
+      <c r="H24" s="15">
+        <v>0</v>
+      </c>
+      <c r="I24" s="15">
+        <v>0</v>
+      </c>
+      <c r="J24" s="15">
+        <v>0</v>
+      </c>
+      <c r="K24" s="15">
         <v>12</v>
       </c>
-      <c r="L24" s="23">
-        <v>0</v>
-      </c>
-      <c r="M24" s="23">
+      <c r="L24" s="15">
+        <v>0</v>
+      </c>
+      <c r="M24" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="23">
+      <c r="B25" s="15">
         <v>9022065.9600000009</v>
       </c>
-      <c r="C25" s="23">
+      <c r="C25" s="15">
         <v>9101181.4299999997</v>
       </c>
-      <c r="D25" s="23">
+      <c r="D25" s="15">
         <v>7594.34</v>
       </c>
-      <c r="E25" s="23">
-        <v>0</v>
-      </c>
-      <c r="F25" s="23">
+      <c r="E25" s="15">
+        <v>0</v>
+      </c>
+      <c r="F25" s="15">
         <v>12387716.710000001</v>
       </c>
-      <c r="G25" s="23">
+      <c r="G25" s="15">
         <v>9986676.2699999996</v>
       </c>
-      <c r="H25" s="23">
+      <c r="H25" s="15">
         <v>12512792.379999999</v>
       </c>
-      <c r="I25" s="23">
+      <c r="I25" s="15">
         <v>14696041.449999999</v>
       </c>
-      <c r="J25" s="23">
-        <v>0</v>
-      </c>
-      <c r="K25" s="23">
+      <c r="J25" s="15">
+        <v>0</v>
+      </c>
+      <c r="K25" s="15">
         <v>8994281.9299999997</v>
       </c>
-      <c r="L25" s="23">
+      <c r="L25" s="15">
         <v>9326533</v>
       </c>
-      <c r="M25" s="23">
+      <c r="M25" s="20">
         <v>8355006.3099999996</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="23">
+      <c r="B26" s="15">
         <v>53956136.439999998</v>
       </c>
-      <c r="C26" s="23">
+      <c r="C26" s="15">
         <v>33869382.009999998</v>
       </c>
-      <c r="D26" s="23">
+      <c r="D26" s="15">
         <v>60576941.939999998</v>
       </c>
-      <c r="E26" s="23">
+      <c r="E26" s="15">
         <v>45121718.810000002</v>
       </c>
-      <c r="F26" s="23">
+      <c r="F26" s="15">
         <v>31219631.199999999</v>
       </c>
-      <c r="G26" s="23">
+      <c r="G26" s="15">
         <v>56071158.5</v>
       </c>
-      <c r="H26" s="23">
+      <c r="H26" s="15">
         <v>43656279.229999997</v>
       </c>
-      <c r="I26" s="23">
+      <c r="I26" s="15">
         <v>79483349.930000007</v>
       </c>
-      <c r="J26" s="23">
+      <c r="J26" s="15">
         <v>11898229.32</v>
       </c>
-      <c r="K26" s="23">
+      <c r="K26" s="15">
         <v>34151203.539999999</v>
       </c>
-      <c r="L26" s="23">
+      <c r="L26" s="15">
         <v>44394287.969999999</v>
       </c>
-      <c r="M26" s="23">
+      <c r="M26" s="20">
         <v>59490163.109999999</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="23">
+      <c r="B27" s="15">
         <v>7311144.3900000006</v>
       </c>
-      <c r="C27" s="23">
+      <c r="C27" s="15">
         <v>17207069.809999999</v>
       </c>
-      <c r="D27" s="23">
+      <c r="D27" s="15">
         <v>18218030.809999999</v>
       </c>
-      <c r="E27" s="23">
+      <c r="E27" s="15">
         <v>7413436.3099999987</v>
       </c>
-      <c r="F27" s="23">
+      <c r="F27" s="15">
         <v>11505862.260000004</v>
       </c>
-      <c r="G27" s="23">
+      <c r="G27" s="15">
         <v>7403721.330000001</v>
       </c>
-      <c r="H27" s="23">
+      <c r="H27" s="15">
         <v>7806311.6100000003</v>
       </c>
-      <c r="I27" s="23">
+      <c r="I27" s="15">
         <v>9023925.0599999987</v>
       </c>
-      <c r="J27" s="23">
+      <c r="J27" s="15">
         <v>9540658.790000001</v>
       </c>
-      <c r="K27" s="23">
+      <c r="K27" s="15">
         <v>12432994.820000002</v>
       </c>
-      <c r="L27" s="23">
+      <c r="L27" s="15">
         <v>6881401.830000001</v>
       </c>
-      <c r="M27" s="23">
+      <c r="M27" s="20">
         <v>13326910</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="23">
+      <c r="B28" s="15">
         <v>61575218.869999997</v>
       </c>
-      <c r="C28" s="23">
+      <c r="C28" s="15">
         <v>63630152.349999994</v>
       </c>
-      <c r="D28" s="23">
+      <c r="D28" s="15">
         <v>72446509.729999989</v>
       </c>
-      <c r="E28" s="23">
+      <c r="E28" s="15">
         <v>93014857.189999998</v>
       </c>
-      <c r="F28" s="23">
+      <c r="F28" s="15">
         <v>77208323.900000006</v>
       </c>
-      <c r="G28" s="23">
+      <c r="G28" s="15">
         <v>71100086.859999999</v>
       </c>
-      <c r="H28" s="23">
+      <c r="H28" s="15">
         <v>92485628.450000003</v>
       </c>
-      <c r="I28" s="23">
+      <c r="I28" s="15">
         <v>77268631.540000021</v>
       </c>
-      <c r="J28" s="23">
+      <c r="J28" s="15">
         <v>61418422.470000006</v>
       </c>
-      <c r="K28" s="23">
+      <c r="K28" s="15">
         <v>63574273.249999978</v>
       </c>
-      <c r="L28" s="23">
+      <c r="L28" s="15">
         <v>69242076.840000018</v>
       </c>
-      <c r="M28" s="23">
+      <c r="M28" s="20">
         <v>95034107.800000012</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="23">
+      <c r="B29" s="15">
         <v>330162260.65999967</v>
       </c>
-      <c r="C29" s="23">
+      <c r="C29" s="15">
         <v>309707909.52999973</v>
       </c>
-      <c r="D29" s="23">
+      <c r="D29" s="15">
         <v>287928716.99000019</v>
       </c>
-      <c r="E29" s="23">
+      <c r="E29" s="15">
         <v>215563499.93999994</v>
       </c>
-      <c r="F29" s="23">
+      <c r="F29" s="15">
         <v>280963328.85000008</v>
       </c>
-      <c r="G29" s="23">
+      <c r="G29" s="15">
         <v>236842676.27999994</v>
       </c>
-      <c r="H29" s="23">
+      <c r="H29" s="15">
         <v>260433329.55000004</v>
       </c>
-      <c r="I29" s="23">
+      <c r="I29" s="15">
         <v>306013650.65000033</v>
       </c>
-      <c r="J29" s="23">
+      <c r="J29" s="15">
         <v>228507975.61999995</v>
       </c>
-      <c r="K29" s="23">
+      <c r="K29" s="15">
         <v>345359576.69</v>
       </c>
-      <c r="L29" s="23">
+      <c r="L29" s="15">
         <v>279909558.43999994</v>
       </c>
-      <c r="M29" s="23">
+      <c r="M29" s="20">
         <v>327635880.97999984</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="23">
+      <c r="B30" s="15">
         <v>96016069.859999895</v>
       </c>
-      <c r="C30" s="23">
+      <c r="C30" s="15">
         <v>102585008.72999994</v>
       </c>
-      <c r="D30" s="23">
+      <c r="D30" s="15">
         <v>130401155.44000001</v>
       </c>
-      <c r="E30" s="23">
+      <c r="E30" s="15">
         <v>106556354.26999994</v>
       </c>
-      <c r="F30" s="23">
+      <c r="F30" s="15">
         <v>131457316.06000002</v>
       </c>
-      <c r="G30" s="23">
+      <c r="G30" s="15">
         <v>120028877.38000007</v>
       </c>
-      <c r="H30" s="23">
+      <c r="H30" s="15">
         <v>111485632.06999998</v>
       </c>
-      <c r="I30" s="23">
+      <c r="I30" s="15">
         <v>143204731.35000032</v>
       </c>
-      <c r="J30" s="23">
+      <c r="J30" s="15">
         <v>129141298.62000012</v>
       </c>
-      <c r="K30" s="23">
+      <c r="K30" s="15">
         <v>136348404.24999991</v>
       </c>
-      <c r="L30" s="23">
+      <c r="L30" s="15">
         <v>140384768.08000004</v>
       </c>
-      <c r="M30" s="23">
+      <c r="M30" s="20">
         <v>132214214.91</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="23">
+      <c r="B31" s="15">
         <v>239478695.44999999</v>
       </c>
-      <c r="C31" s="23">
+      <c r="C31" s="15">
         <v>108702787.81</v>
       </c>
-      <c r="D31" s="23">
+      <c r="D31" s="15">
         <v>151008900.53</v>
       </c>
-      <c r="E31" s="23">
+      <c r="E31" s="15">
         <v>169310045.69</v>
       </c>
-      <c r="F31" s="23">
+      <c r="F31" s="15">
         <v>120902143.7</v>
       </c>
-      <c r="G31" s="23">
+      <c r="G31" s="15">
         <v>138578662.83000001</v>
       </c>
-      <c r="H31" s="23">
+      <c r="H31" s="15">
         <v>197514894.38</v>
       </c>
-      <c r="I31" s="23">
+      <c r="I31" s="15">
         <v>247278427.92000002</v>
       </c>
-      <c r="J31" s="23">
+      <c r="J31" s="15">
         <v>120365489.70999999</v>
       </c>
-      <c r="K31" s="23">
+      <c r="K31" s="15">
         <v>274879410.76000005</v>
       </c>
-      <c r="L31" s="23">
+      <c r="L31" s="15">
         <v>109078529.27000001</v>
       </c>
-      <c r="M31" s="23">
+      <c r="M31" s="20">
         <v>276411963.04000002</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="23">
+      <c r="B32" s="15">
         <v>396</v>
       </c>
-      <c r="C32" s="23">
+      <c r="C32" s="15">
         <v>1148.8900000000001</v>
       </c>
-      <c r="D32" s="23">
+      <c r="D32" s="15">
         <v>10146.99</v>
       </c>
-      <c r="E32" s="23">
+      <c r="E32" s="15">
         <v>84849.349999999991</v>
       </c>
-      <c r="F32" s="23">
+      <c r="F32" s="15">
         <v>2645449.8300000005</v>
       </c>
-      <c r="G32" s="23">
+      <c r="G32" s="15">
         <v>18023.019999999997</v>
       </c>
-      <c r="H32" s="23">
+      <c r="H32" s="15">
         <v>51300.94</v>
       </c>
-      <c r="I32" s="23">
+      <c r="I32" s="15">
         <v>65790.06</v>
       </c>
-      <c r="J32" s="23">
+      <c r="J32" s="15">
         <v>62064.079999999994</v>
       </c>
-      <c r="K32" s="23">
+      <c r="K32" s="15">
         <v>25863.769999999997</v>
       </c>
-      <c r="L32" s="23">
+      <c r="L32" s="15">
         <v>25104.04</v>
       </c>
-      <c r="M32" s="23">
+      <c r="M32" s="20">
         <v>34407.89</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B33" s="23">
+      <c r="B33" s="15">
         <v>62779.74</v>
       </c>
-      <c r="C33" s="23">
+      <c r="C33" s="15">
         <v>59685.8</v>
       </c>
-      <c r="D33" s="23">
+      <c r="D33" s="15">
         <v>76042.06</v>
       </c>
-      <c r="E33" s="23">
+      <c r="E33" s="15">
         <v>5338.12</v>
       </c>
-      <c r="F33" s="23">
+      <c r="F33" s="15">
         <v>104173.12</v>
       </c>
-      <c r="G33" s="23">
+      <c r="G33" s="15">
         <v>54051.049999999996</v>
       </c>
-      <c r="H33" s="23">
+      <c r="H33" s="15">
         <v>89924.1</v>
       </c>
-      <c r="I33" s="23">
+      <c r="I33" s="15">
         <v>451323.38</v>
       </c>
-      <c r="J33" s="23">
+      <c r="J33" s="15">
         <v>142095.26</v>
       </c>
-      <c r="K33" s="23">
+      <c r="K33" s="15">
         <v>88821.22</v>
       </c>
-      <c r="L33" s="23">
+      <c r="L33" s="15">
         <v>25724.080000000002</v>
       </c>
-      <c r="M33" s="23">
+      <c r="M33" s="20">
         <v>24565.59</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="B34" s="23">
+      <c r="B34" s="15">
         <v>83460905.00999999</v>
       </c>
-      <c r="C34" s="23">
+      <c r="C34" s="15">
         <v>14782915.9</v>
       </c>
-      <c r="D34" s="23">
+      <c r="D34" s="15">
         <v>158468302.57000002</v>
       </c>
-      <c r="E34" s="23">
+      <c r="E34" s="15">
         <v>56053717.020000003</v>
       </c>
-      <c r="F34" s="23">
+      <c r="F34" s="15">
         <v>31252434.530000001</v>
       </c>
-      <c r="G34" s="23">
+      <c r="G34" s="15">
         <v>201869651.42000002</v>
       </c>
-      <c r="H34" s="23">
+      <c r="H34" s="15">
         <v>76510004.420000002</v>
       </c>
-      <c r="I34" s="23">
+      <c r="I34" s="15">
         <v>141914381.81</v>
       </c>
-      <c r="J34" s="23">
+      <c r="J34" s="15">
         <v>167518726.53999999</v>
       </c>
-      <c r="K34" s="23">
+      <c r="K34" s="15">
         <v>83110771.099999994</v>
       </c>
-      <c r="L34" s="23">
+      <c r="L34" s="15">
         <v>38058923.310000002</v>
       </c>
-      <c r="M34" s="23">
+      <c r="M34" s="20">
         <v>99453243.620000005</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="B35" s="23">
+      <c r="B35" s="15">
         <v>4965022.3400000008</v>
       </c>
-      <c r="C35" s="23">
+      <c r="C35" s="15">
         <v>7285415.75</v>
       </c>
-      <c r="D35" s="23">
+      <c r="D35" s="15">
         <v>9171999.1799999997</v>
       </c>
-      <c r="E35" s="23">
+      <c r="E35" s="15">
         <v>7917089.459999999</v>
       </c>
-      <c r="F35" s="23">
+      <c r="F35" s="15">
         <v>10630927.57</v>
       </c>
-      <c r="G35" s="23">
+      <c r="G35" s="15">
         <v>7997864.5399999991</v>
       </c>
-      <c r="H35" s="23">
+      <c r="H35" s="15">
         <v>22421351.700000003</v>
       </c>
-      <c r="I35" s="23">
+      <c r="I35" s="15">
         <v>8414639.1899999995</v>
       </c>
-      <c r="J35" s="23">
+      <c r="J35" s="15">
         <v>9268308.9600000009</v>
       </c>
-      <c r="K35" s="23">
+      <c r="K35" s="15">
         <v>10850320.540000001</v>
       </c>
-      <c r="L35" s="23">
+      <c r="L35" s="15">
         <v>3484514.5100000002</v>
       </c>
-      <c r="M35" s="23">
+      <c r="M35" s="20">
         <v>5196405.2200000007</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="22" t="s">
+      <c r="A36" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B36" s="23">
-        <v>0</v>
-      </c>
-      <c r="C36" s="23">
-        <v>0</v>
-      </c>
-      <c r="D36" s="23">
-        <v>0</v>
-      </c>
-      <c r="E36" s="23">
-        <v>0</v>
-      </c>
-      <c r="F36" s="23">
-        <v>0</v>
-      </c>
-      <c r="G36" s="23">
-        <v>0</v>
-      </c>
-      <c r="H36" s="23">
+      <c r="B36" s="15">
+        <v>0</v>
+      </c>
+      <c r="C36" s="15">
+        <v>0</v>
+      </c>
+      <c r="D36" s="15">
+        <v>0</v>
+      </c>
+      <c r="E36" s="15">
+        <v>0</v>
+      </c>
+      <c r="F36" s="15">
+        <v>0</v>
+      </c>
+      <c r="G36" s="15">
+        <v>0</v>
+      </c>
+      <c r="H36" s="15">
         <v>700</v>
       </c>
-      <c r="I36" s="23">
+      <c r="I36" s="15">
         <v>700</v>
       </c>
-      <c r="J36" s="23">
-        <v>0</v>
-      </c>
-      <c r="K36" s="23">
-        <v>0</v>
-      </c>
-      <c r="L36" s="23">
+      <c r="J36" s="15">
+        <v>0</v>
+      </c>
+      <c r="K36" s="15">
+        <v>0</v>
+      </c>
+      <c r="L36" s="15">
         <v>8366.73</v>
       </c>
-      <c r="M36" s="23">
+      <c r="M36" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="B37" s="23">
+      <c r="B37" s="15">
         <v>3068287.8799999994</v>
       </c>
-      <c r="C37" s="23">
+      <c r="C37" s="15">
         <v>2385104.34</v>
       </c>
-      <c r="D37" s="23">
+      <c r="D37" s="15">
         <v>3018178.790000001</v>
       </c>
-      <c r="E37" s="23">
+      <c r="E37" s="15">
         <v>3956691.96</v>
       </c>
-      <c r="F37" s="23">
+      <c r="F37" s="15">
         <v>3514526.8800000004</v>
       </c>
-      <c r="G37" s="23">
+      <c r="G37" s="15">
         <v>3400243.5399999996</v>
       </c>
-      <c r="H37" s="23">
+      <c r="H37" s="15">
         <v>3542989.8999999994</v>
       </c>
-      <c r="I37" s="23">
+      <c r="I37" s="15">
         <v>4027210.4299999983</v>
       </c>
-      <c r="J37" s="23">
+      <c r="J37" s="15">
         <v>3885387.3499999996</v>
       </c>
-      <c r="K37" s="23">
+      <c r="K37" s="15">
         <v>3611656.7200000007</v>
       </c>
-      <c r="L37" s="23">
+      <c r="L37" s="15">
         <v>3583374.7800000007</v>
       </c>
-      <c r="M37" s="23">
+      <c r="M37" s="20">
         <v>4201828.6899999995</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A38" s="22" t="s">
+      <c r="A38" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B38" s="23">
+      <c r="B38" s="15">
         <v>2870811.5799999996</v>
       </c>
-      <c r="C38" s="23">
+      <c r="C38" s="15">
         <v>1921759.4600000002</v>
       </c>
-      <c r="D38" s="23">
+      <c r="D38" s="15">
         <v>2196795.31</v>
       </c>
-      <c r="E38" s="23">
+      <c r="E38" s="15">
         <v>1573605.71</v>
       </c>
-      <c r="F38" s="23">
+      <c r="F38" s="15">
         <v>2091431.23</v>
       </c>
-      <c r="G38" s="23">
+      <c r="G38" s="15">
         <v>1743217.23</v>
       </c>
-      <c r="H38" s="23">
+      <c r="H38" s="15">
         <v>2571475.61</v>
       </c>
-      <c r="I38" s="23">
+      <c r="I38" s="15">
         <v>4329034.84</v>
       </c>
-      <c r="J38" s="23">
+      <c r="J38" s="15">
         <v>3063360.74</v>
       </c>
-      <c r="K38" s="23">
+      <c r="K38" s="15">
         <v>2082601.66</v>
       </c>
-      <c r="L38" s="23">
+      <c r="L38" s="15">
         <v>1679879.71</v>
       </c>
-      <c r="M38" s="23">
+      <c r="M38" s="20">
         <v>2377299.6500000004</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" s="22" t="s">
+      <c r="A39" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B39" s="23">
+      <c r="B39" s="15">
         <v>119662455.66</v>
       </c>
-      <c r="C39" s="23">
+      <c r="C39" s="15">
         <v>50199523.160000004</v>
       </c>
-      <c r="D39" s="23">
+      <c r="D39" s="15">
         <v>149173812.51000002</v>
       </c>
-      <c r="E39" s="23">
+      <c r="E39" s="15">
         <v>76614541.269999996</v>
       </c>
-      <c r="F39" s="23">
+      <c r="F39" s="15">
         <v>166711923.95999998</v>
       </c>
-      <c r="G39" s="23">
+      <c r="G39" s="15">
         <v>136410948.65000001</v>
       </c>
-      <c r="H39" s="23">
+      <c r="H39" s="15">
         <v>148584472.19999999</v>
       </c>
-      <c r="I39" s="23">
+      <c r="I39" s="15">
         <v>183470364.31999999</v>
       </c>
-      <c r="J39" s="23">
+      <c r="J39" s="15">
         <v>191184125.43000001</v>
       </c>
-      <c r="K39" s="23">
+      <c r="K39" s="15">
         <v>309246340.25</v>
       </c>
-      <c r="L39" s="23">
+      <c r="L39" s="15">
         <v>181009279.22</v>
       </c>
-      <c r="M39" s="23">
+      <c r="M39" s="20">
         <v>259070395.12</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A40" s="22" t="s">
+      <c r="A40" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="B40" s="23">
+      <c r="B40" s="15">
         <v>3602439.94</v>
       </c>
-      <c r="C40" s="23">
+      <c r="C40" s="15">
         <v>6778805.1200000001</v>
       </c>
-      <c r="D40" s="23">
+      <c r="D40" s="15">
         <v>11489853.27</v>
       </c>
-      <c r="E40" s="23">
+      <c r="E40" s="15">
         <v>7117655.0699999994</v>
       </c>
-      <c r="F40" s="23">
+      <c r="F40" s="15">
         <v>11090157.42</v>
       </c>
-      <c r="G40" s="23">
+      <c r="G40" s="15">
         <v>9683489.5999999996</v>
       </c>
-      <c r="H40" s="23">
+      <c r="H40" s="15">
         <v>5818400.7699999996</v>
       </c>
-      <c r="I40" s="23">
+      <c r="I40" s="15">
         <v>6563886.4399999995</v>
       </c>
-      <c r="J40" s="23">
+      <c r="J40" s="15">
         <v>6117798.0099999998</v>
       </c>
-      <c r="K40" s="23">
+      <c r="K40" s="15">
         <v>8264664.6200000001</v>
       </c>
-      <c r="L40" s="23">
+      <c r="L40" s="15">
         <v>7387068.2000000002</v>
       </c>
-      <c r="M40" s="23">
+      <c r="M40" s="20">
         <v>9611214.4600000009</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A41" s="22" t="s">
+      <c r="A41" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="B41" s="23">
-        <v>0</v>
-      </c>
-      <c r="C41" s="23">
-        <v>0</v>
-      </c>
-      <c r="D41" s="23">
+      <c r="B41" s="15">
+        <v>0</v>
+      </c>
+      <c r="C41" s="15">
+        <v>0</v>
+      </c>
+      <c r="D41" s="15">
         <v>3672425.66</v>
       </c>
-      <c r="E41" s="23">
+      <c r="E41" s="15">
         <v>7621</v>
       </c>
-      <c r="F41" s="23">
+      <c r="F41" s="15">
         <v>2008.41</v>
       </c>
-      <c r="G41" s="23">
+      <c r="G41" s="15">
         <v>2124.29</v>
       </c>
-      <c r="H41" s="23">
+      <c r="H41" s="15">
         <v>1552453.9</v>
       </c>
-      <c r="I41" s="23">
+      <c r="I41" s="15">
         <v>80394.73</v>
       </c>
-      <c r="J41" s="23">
+      <c r="J41" s="15">
         <v>4960.76</v>
       </c>
-      <c r="K41" s="23">
+      <c r="K41" s="15">
         <v>6513.02</v>
       </c>
-      <c r="L41" s="23">
+      <c r="L41" s="15">
         <v>1732992.03</v>
       </c>
-      <c r="M41" s="23">
+      <c r="M41" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A42" s="22" t="s">
+      <c r="A42" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="B42" s="23">
+      <c r="B42" s="15">
         <v>40076802.609999999</v>
       </c>
-      <c r="C42" s="23">
+      <c r="C42" s="15">
         <v>52688915.930000015</v>
       </c>
-      <c r="D42" s="23">
+      <c r="D42" s="15">
         <v>48939573.630000018</v>
       </c>
-      <c r="E42" s="23">
+      <c r="E42" s="15">
         <v>37155525.219999991</v>
       </c>
-      <c r="F42" s="23">
+      <c r="F42" s="15">
         <v>46861979.220000014</v>
       </c>
-      <c r="G42" s="23">
+      <c r="G42" s="15">
         <v>31680435.690000001</v>
       </c>
-      <c r="H42" s="23">
+      <c r="H42" s="15">
         <v>28320425.980000004</v>
       </c>
-      <c r="I42" s="23">
+      <c r="I42" s="15">
         <v>35490766.889999986</v>
       </c>
-      <c r="J42" s="23">
+      <c r="J42" s="15">
         <v>28866691.359999999</v>
       </c>
-      <c r="K42" s="23">
+      <c r="K42" s="15">
         <v>26459117.460000001</v>
       </c>
-      <c r="L42" s="23">
+      <c r="L42" s="15">
         <v>40660925.199999981</v>
       </c>
-      <c r="M42" s="23">
+      <c r="M42" s="20">
         <v>39887196.479999974</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A43" s="22" t="s">
+      <c r="A43" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="B43" s="23">
+      <c r="B43" s="15">
         <v>820310818.43000019</v>
       </c>
-      <c r="C43" s="23">
+      <c r="C43" s="15">
         <v>796254125.42999995</v>
       </c>
-      <c r="D43" s="23">
+      <c r="D43" s="15">
         <v>781073681.33999979</v>
       </c>
-      <c r="E43" s="23">
+      <c r="E43" s="15">
         <v>918297398.27000022</v>
       </c>
-      <c r="F43" s="23">
+      <c r="F43" s="15">
         <v>928086805.46000016</v>
       </c>
-      <c r="G43" s="23">
+      <c r="G43" s="15">
         <v>668997685.82000005</v>
       </c>
-      <c r="H43" s="23">
+      <c r="H43" s="15">
         <v>849021325.99000013</v>
       </c>
-      <c r="I43" s="23">
+      <c r="I43" s="15">
         <v>1134315011.55</v>
       </c>
-      <c r="J43" s="23">
+      <c r="J43" s="15">
         <v>962457222.00999975</v>
       </c>
-      <c r="K43" s="23">
+      <c r="K43" s="15">
         <v>995044843.55999994</v>
       </c>
-      <c r="L43" s="23">
+      <c r="L43" s="15">
         <v>1177292951.2299998</v>
       </c>
-      <c r="M43" s="23">
+      <c r="M43" s="20">
         <v>1040956900.38</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A44" s="22" t="s">
+      <c r="A44" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="B44" s="23">
+      <c r="B44" s="15">
         <v>5476452.0800000001</v>
       </c>
-      <c r="C44" s="23">
+      <c r="C44" s="15">
         <v>153444.81</v>
       </c>
-      <c r="D44" s="23">
+      <c r="D44" s="15">
         <v>409135.13</v>
       </c>
-      <c r="E44" s="23">
+      <c r="E44" s="15">
         <v>357324.67</v>
       </c>
-      <c r="F44" s="23">
+      <c r="F44" s="15">
         <v>160118.39000000001</v>
       </c>
-      <c r="G44" s="23">
+      <c r="G44" s="15">
         <v>114379.87</v>
       </c>
-      <c r="H44" s="23">
+      <c r="H44" s="15">
         <v>1890630.49</v>
       </c>
-      <c r="I44" s="23">
+      <c r="I44" s="15">
         <v>790732.14</v>
       </c>
-      <c r="J44" s="23">
+      <c r="J44" s="15">
         <v>8464020.25</v>
       </c>
-      <c r="K44" s="23">
+      <c r="K44" s="15">
         <v>5399226.2699999996</v>
       </c>
-      <c r="L44" s="23">
+      <c r="L44" s="15">
         <v>4206641.47</v>
       </c>
-      <c r="M44" s="23">
+      <c r="M44" s="20">
         <v>572370.22000000009</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A45" s="22" t="s">
+      <c r="A45" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="B45" s="23">
+      <c r="B45" s="15">
         <v>1721705.31</v>
       </c>
-      <c r="C45" s="23">
+      <c r="C45" s="15">
         <v>1146494.77</v>
       </c>
-      <c r="D45" s="23">
+      <c r="D45" s="15">
         <v>1102497.27</v>
       </c>
-      <c r="E45" s="23">
-        <v>0</v>
-      </c>
-      <c r="F45" s="23">
-        <v>0</v>
-      </c>
-      <c r="G45" s="23">
-        <v>0</v>
-      </c>
-      <c r="H45" s="23">
-        <v>0</v>
-      </c>
-      <c r="I45" s="23">
-        <v>0</v>
-      </c>
-      <c r="J45" s="23">
-        <v>0</v>
-      </c>
-      <c r="K45" s="23">
-        <v>0</v>
-      </c>
-      <c r="L45" s="23">
+      <c r="E45" s="15">
+        <v>0</v>
+      </c>
+      <c r="F45" s="15">
+        <v>0</v>
+      </c>
+      <c r="G45" s="15">
+        <v>0</v>
+      </c>
+      <c r="H45" s="15">
+        <v>0</v>
+      </c>
+      <c r="I45" s="15">
+        <v>0</v>
+      </c>
+      <c r="J45" s="15">
+        <v>0</v>
+      </c>
+      <c r="K45" s="15">
+        <v>0</v>
+      </c>
+      <c r="L45" s="15">
         <v>214962.66</v>
       </c>
-      <c r="M45" s="23">
+      <c r="M45" s="20">
         <v>1139513.03</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A46" s="22" t="s">
+      <c r="A46" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="B46" s="23">
+      <c r="B46" s="15">
         <v>3879230.58</v>
       </c>
-      <c r="C46" s="23">
+      <c r="C46" s="15">
         <v>13095568.350000001</v>
       </c>
-      <c r="D46" s="23">
+      <c r="D46" s="15">
         <v>10929771.100000001</v>
       </c>
-      <c r="E46" s="23">
+      <c r="E46" s="15">
         <v>2816682.4799999995</v>
       </c>
-      <c r="F46" s="23">
+      <c r="F46" s="15">
         <v>3009998.9</v>
       </c>
-      <c r="G46" s="23">
+      <c r="G46" s="15">
         <v>2731712.0699999994</v>
       </c>
-      <c r="H46" s="23">
+      <c r="H46" s="15">
         <v>14262407.560000001</v>
       </c>
-      <c r="I46" s="23">
+      <c r="I46" s="15">
         <v>9541776.870000001</v>
       </c>
-      <c r="J46" s="23">
+      <c r="J46" s="15">
         <v>999976.13</v>
       </c>
-      <c r="K46" s="23">
+      <c r="K46" s="15">
         <v>1551978.6700000002</v>
       </c>
-      <c r="L46" s="23">
+      <c r="L46" s="15">
         <v>19057081.810000002</v>
       </c>
-      <c r="M46" s="23">
+      <c r="M46" s="20">
         <v>9426046.0200000014</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A47" s="22" t="s">
+      <c r="A47" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B47" s="23">
+      <c r="B47" s="15">
         <v>226999.33000000002</v>
       </c>
-      <c r="C47" s="23">
+      <c r="C47" s="15">
         <v>515099.85</v>
       </c>
-      <c r="D47" s="23">
+      <c r="D47" s="15">
         <v>19777745.580000002</v>
       </c>
-      <c r="E47" s="23">
+      <c r="E47" s="15">
         <v>15206240.080000002</v>
       </c>
-      <c r="F47" s="23">
+      <c r="F47" s="15">
         <v>1637741.5499999998</v>
       </c>
-      <c r="G47" s="23">
+      <c r="G47" s="15">
         <v>15458106.689999999</v>
       </c>
-      <c r="H47" s="23">
+      <c r="H47" s="15">
         <v>9415251.040000001</v>
       </c>
-      <c r="I47" s="23">
+      <c r="I47" s="15">
         <v>410274.35</v>
       </c>
-      <c r="J47" s="23">
+      <c r="J47" s="15">
         <v>5515629.8700000001</v>
       </c>
-      <c r="K47" s="23">
+      <c r="K47" s="15">
         <v>955848.85</v>
       </c>
-      <c r="L47" s="23">
+      <c r="L47" s="15">
         <v>6962647.5800000001</v>
       </c>
-      <c r="M47" s="23">
+      <c r="M47" s="20">
         <v>83348.72</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A48" s="22" t="s">
+      <c r="A48" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="B48" s="23">
+      <c r="B48" s="15">
         <v>601154248.78999913</v>
       </c>
-      <c r="C48" s="23">
+      <c r="C48" s="15">
         <v>478568160.61000013</v>
       </c>
-      <c r="D48" s="23">
+      <c r="D48" s="15">
         <v>711284158.81999981</v>
       </c>
-      <c r="E48" s="23">
+      <c r="E48" s="15">
         <v>629615111.10000002</v>
       </c>
-      <c r="F48" s="23">
+      <c r="F48" s="15">
         <v>707320940.58999944</v>
       </c>
-      <c r="G48" s="23">
+      <c r="G48" s="15">
         <v>594401568.89000022</v>
       </c>
-      <c r="H48" s="23">
+      <c r="H48" s="15">
         <v>612533804.92000043</v>
       </c>
-      <c r="I48" s="23">
+      <c r="I48" s="15">
         <v>676027269.12999976</v>
       </c>
-      <c r="J48" s="23">
+      <c r="J48" s="15">
         <v>524527718.28999907</v>
       </c>
-      <c r="K48" s="23">
+      <c r="K48" s="15">
         <v>608232337.75999939</v>
       </c>
-      <c r="L48" s="23">
+      <c r="L48" s="15">
         <v>567429956.33999991</v>
       </c>
-      <c r="M48" s="23">
+      <c r="M48" s="20">
         <v>645327724.03000069</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A49" s="22" t="s">
+      <c r="A49" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B49" s="23">
-        <v>0</v>
-      </c>
-      <c r="C49" s="23">
+      <c r="B49" s="15">
+        <v>0</v>
+      </c>
+      <c r="C49" s="15">
         <v>229374</v>
       </c>
-      <c r="D49" s="23">
+      <c r="D49" s="15">
         <v>58878</v>
       </c>
-      <c r="E49" s="23">
-        <v>0</v>
-      </c>
-      <c r="F49" s="23">
+      <c r="E49" s="15">
+        <v>0</v>
+      </c>
+      <c r="F49" s="15">
         <v>53462</v>
       </c>
-      <c r="G49" s="23">
+      <c r="G49" s="15">
         <v>8085.45</v>
       </c>
-      <c r="H49" s="23">
+      <c r="H49" s="15">
         <v>60500</v>
       </c>
-      <c r="I49" s="23">
+      <c r="I49" s="15">
         <v>105651.99</v>
       </c>
-      <c r="J49" s="23">
+      <c r="J49" s="15">
         <v>78476.240000000005</v>
       </c>
-      <c r="K49" s="23">
+      <c r="K49" s="15">
         <v>69318</v>
       </c>
-      <c r="L49" s="23">
+      <c r="L49" s="15">
         <v>18459.099999999999</v>
       </c>
-      <c r="M49" s="23">
+      <c r="M49" s="20">
         <v>3542</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A50" s="22" t="s">
+      <c r="A50" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="B50" s="23">
+      <c r="B50" s="15">
         <v>14761403.83</v>
       </c>
-      <c r="C50" s="23">
+      <c r="C50" s="15">
         <v>1872967.13</v>
       </c>
-      <c r="D50" s="23">
+      <c r="D50" s="15">
         <v>45052.54</v>
       </c>
-      <c r="E50" s="23">
+      <c r="E50" s="15">
         <v>53293.4</v>
       </c>
-      <c r="F50" s="23">
+      <c r="F50" s="15">
         <v>154514.12</v>
       </c>
-      <c r="G50" s="23">
+      <c r="G50" s="15">
         <v>138786.79</v>
       </c>
-      <c r="H50" s="23">
+      <c r="H50" s="15">
         <v>408540.28</v>
       </c>
-      <c r="I50" s="23">
+      <c r="I50" s="15">
         <v>52489.93</v>
       </c>
-      <c r="J50" s="23">
+      <c r="J50" s="15">
         <v>104365.29</v>
       </c>
-      <c r="K50" s="23">
+      <c r="K50" s="15">
         <v>129031.64</v>
       </c>
-      <c r="L50" s="23">
+      <c r="L50" s="15">
         <v>786971.03</v>
       </c>
-      <c r="M50" s="23">
+      <c r="M50" s="20">
         <v>329004.74</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A51" s="22" t="s">
+      <c r="A51" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="B51" s="23">
+      <c r="B51" s="15">
         <v>322231187.04000014</v>
       </c>
-      <c r="C51" s="23">
+      <c r="C51" s="15">
         <v>270792251.93999994</v>
       </c>
-      <c r="D51" s="23">
+      <c r="D51" s="15">
         <v>300152992.19999999</v>
       </c>
-      <c r="E51" s="23">
+      <c r="E51" s="15">
         <v>230402695.98999989</v>
       </c>
-      <c r="F51" s="23">
+      <c r="F51" s="15">
         <v>259166246.73000014</v>
       </c>
-      <c r="G51" s="23">
+      <c r="G51" s="15">
         <v>248447203.21999979</v>
       </c>
-      <c r="H51" s="23">
+      <c r="H51" s="15">
         <v>251214317.30000019</v>
       </c>
-      <c r="I51" s="23">
+      <c r="I51" s="15">
         <v>297234333.54000008</v>
       </c>
-      <c r="J51" s="23">
+      <c r="J51" s="15">
         <v>271408176.36999989</v>
       </c>
-      <c r="K51" s="23">
+      <c r="K51" s="15">
         <v>193866666.20000008</v>
       </c>
-      <c r="L51" s="23">
+      <c r="L51" s="15">
         <v>255253175.20999998</v>
       </c>
-      <c r="M51" s="23">
+      <c r="M51" s="20">
         <v>252422566.04999995</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A52" s="22" t="s">
+      <c r="A52" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B52" s="23">
+      <c r="B52" s="15">
         <v>19195817.890000001</v>
       </c>
-      <c r="C52" s="23">
+      <c r="C52" s="15">
         <v>17427822</v>
       </c>
-      <c r="D52" s="23">
+      <c r="D52" s="15">
         <v>5960825.7799999993</v>
       </c>
-      <c r="E52" s="23">
+      <c r="E52" s="15">
         <v>9619314.0699999984</v>
       </c>
-      <c r="F52" s="23">
+      <c r="F52" s="15">
         <v>6824432.5899999999</v>
       </c>
-      <c r="G52" s="23">
+      <c r="G52" s="15">
         <v>2755067.01</v>
       </c>
-      <c r="H52" s="23">
+      <c r="H52" s="15">
         <v>858894.1100000001</v>
       </c>
-      <c r="I52" s="23">
+      <c r="I52" s="15">
         <v>916931.80999999994</v>
       </c>
-      <c r="J52" s="23">
+      <c r="J52" s="15">
         <v>6839662.8500000006</v>
       </c>
-      <c r="K52" s="23">
+      <c r="K52" s="15">
         <v>759750.30999999994</v>
       </c>
-      <c r="L52" s="23">
+      <c r="L52" s="15">
         <v>13112459.890000001</v>
       </c>
-      <c r="M52" s="23">
+      <c r="M52" s="20">
         <v>2085057.1199999999</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A53" s="22" t="s">
+      <c r="A53" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="B53" s="23">
+      <c r="B53" s="15">
         <v>72039887.299999997</v>
       </c>
-      <c r="C53" s="23">
+      <c r="C53" s="15">
         <v>31969802.080000002</v>
       </c>
-      <c r="D53" s="23">
+      <c r="D53" s="15">
         <v>48780042.280000001</v>
       </c>
-      <c r="E53" s="23">
+      <c r="E53" s="15">
         <v>64887505.57</v>
       </c>
-      <c r="F53" s="23">
+      <c r="F53" s="15">
         <v>68409517.540000007</v>
       </c>
-      <c r="G53" s="23">
+      <c r="G53" s="15">
         <v>37081335.969999999</v>
       </c>
-      <c r="H53" s="23">
+      <c r="H53" s="15">
         <v>81349526.610000014</v>
       </c>
-      <c r="I53" s="23">
+      <c r="I53" s="15">
         <v>83163808.070000008</v>
       </c>
-      <c r="J53" s="23">
+      <c r="J53" s="15">
         <v>58511706.990000002</v>
       </c>
-      <c r="K53" s="23">
+      <c r="K53" s="15">
         <v>80593435.000000015</v>
       </c>
-      <c r="L53" s="23">
+      <c r="L53" s="15">
         <v>59111120.520000003</v>
       </c>
-      <c r="M53" s="23">
+      <c r="M53" s="20">
         <v>67371775.739999995</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A54" s="22" t="s">
+      <c r="A54" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B54" s="23">
+      <c r="B54" s="15">
         <v>977185119.92000031</v>
       </c>
-      <c r="C54" s="23">
+      <c r="C54" s="15">
         <v>750903418.78999996</v>
       </c>
-      <c r="D54" s="23">
+      <c r="D54" s="15">
         <v>969164144.41999972</v>
       </c>
-      <c r="E54" s="23">
+      <c r="E54" s="15">
         <v>857941099.80999804</v>
       </c>
-      <c r="F54" s="23">
+      <c r="F54" s="15">
         <v>878649352.98000276</v>
       </c>
-      <c r="G54" s="23">
+      <c r="G54" s="15">
         <v>777829430.45000136</v>
       </c>
-      <c r="H54" s="23">
+      <c r="H54" s="15">
         <v>731601685.69000077</v>
       </c>
-      <c r="I54" s="23">
+      <c r="I54" s="15">
         <v>838873273.91000152</v>
       </c>
-      <c r="J54" s="23">
+      <c r="J54" s="15">
         <v>771814173.69000292</v>
       </c>
-      <c r="K54" s="23">
+      <c r="K54" s="15">
         <v>831222906.0500021</v>
       </c>
-      <c r="L54" s="23">
+      <c r="L54" s="15">
         <v>878582226.93000031</v>
       </c>
-      <c r="M54" s="23">
+      <c r="M54" s="20">
         <v>1036104772.8600003</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A55" s="22" t="s">
+      <c r="A55" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="B55" s="23">
+      <c r="B55" s="15">
         <v>479879475.33999991</v>
       </c>
-      <c r="C55" s="23">
+      <c r="C55" s="15">
         <v>79327037.050000012</v>
       </c>
-      <c r="D55" s="23">
+      <c r="D55" s="15">
         <v>232635499.63</v>
       </c>
-      <c r="E55" s="23">
+      <c r="E55" s="15">
         <v>187501059.10000005</v>
       </c>
-      <c r="F55" s="23">
+      <c r="F55" s="15">
         <v>193820603.15000001</v>
       </c>
-      <c r="G55" s="23">
+      <c r="G55" s="15">
         <v>109696674.64999999</v>
       </c>
-      <c r="H55" s="23">
+      <c r="H55" s="15">
         <v>314601282.88999993</v>
       </c>
-      <c r="I55" s="23">
+      <c r="I55" s="15">
         <v>226767029.50000003</v>
       </c>
-      <c r="J55" s="23">
+      <c r="J55" s="15">
         <v>219909332.63000005</v>
       </c>
-      <c r="K55" s="23">
+      <c r="K55" s="15">
         <v>145153552.76999998</v>
       </c>
-      <c r="L55" s="23">
+      <c r="L55" s="15">
         <v>170417854.08999997</v>
       </c>
-      <c r="M55" s="23">
+      <c r="M55" s="20">
         <v>143032141.44</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A56" s="22" t="s">
+      <c r="A56" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="B56" s="23">
+      <c r="B56" s="27">
         <v>80192807.569999933</v>
       </c>
-      <c r="C56" s="23">
+      <c r="C56" s="27">
         <v>40400696.220000029</v>
       </c>
-      <c r="D56" s="23">
+      <c r="D56" s="27">
         <v>47681363.770000018</v>
       </c>
-      <c r="E56" s="23">
+      <c r="E56" s="27">
         <v>51110594.239999995</v>
       </c>
-      <c r="F56" s="23">
+      <c r="F56" s="27">
         <v>44549318.449999981</v>
       </c>
-      <c r="G56" s="23">
+      <c r="G56" s="27">
         <v>52121836.969999976</v>
       </c>
-      <c r="H56" s="23">
+      <c r="H56" s="27">
         <v>48920918.570000015</v>
       </c>
-      <c r="I56" s="23">
+      <c r="I56" s="27">
         <v>49054818.559999973</v>
       </c>
-      <c r="J56" s="23">
+      <c r="J56" s="27">
         <v>54737476.530000024</v>
       </c>
-      <c r="K56" s="23">
+      <c r="K56" s="27">
         <v>49182397.079999946</v>
       </c>
-      <c r="L56" s="23">
+      <c r="L56" s="27">
         <v>52517824.589999981</v>
       </c>
-      <c r="M56" s="23">
+      <c r="M56" s="28">
         <v>83808265.669999987</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>